--- a/resource/excel.xlsx
+++ b/resource/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>from</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,6 +60,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,47 +84,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time6</t>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +522,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -571,65 +571,65 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -637,44 +637,26 @@
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/resource/excel.xlsx
+++ b/resource/excel.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="userManager" sheetId="1" r:id="rId1"/>
+    <sheet name="taskManager" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +114,14 @@
   </si>
   <si>
     <t>任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskTite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,4 +674,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
 </file>